--- a/ChatConfig英文.xlsx
+++ b/ChatConfig英文.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\SFK\Playing-chickens\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927DB3A4-9283-4C06-9516-62812AC80DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chat" sheetId="3" r:id="rId1"/>
@@ -111,7 +117,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="HelveticaNeue"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>…</t>
     </r>
@@ -137,7 +143,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>了！哈哈哈！</t>
     </r>
@@ -155,9 +161,6 @@
     <t>女主触碰到路牌自动弹出</t>
   </si>
   <si>
-    <t>ad move left and right, w jump, s interact with objects</t>
-  </si>
-  <si>
     <t>第二幕地上level2</t>
   </si>
   <si>
@@ -167,13 +170,7 @@
     <t>开始启动炮塔</t>
   </si>
   <si>
-    <t>I built this mountain, I carry this tree, if you want to cross this road, you have to leave money behind</t>
-  </si>
-  <si>
     <t>这些鸟的头部看起来是弱点，不如踩他们的头试试看。</t>
-  </si>
-  <si>
-    <t>The heads of these birds seem to be weak points, so why not try stomping on their heads?</t>
   </si>
   <si>
     <t>boss战场景</t>
@@ -186,9 +183,6 @@
   </si>
   <si>
     <t>女主被击落山崖</t>
-  </si>
-  <si>
-    <t>Foolish people...are you willing to fight against me for the sake of a selfish, pathetic man? No matter...all your struggles will be futile in the face of my absolute strength!</t>
   </si>
   <si>
     <t>身体好沉᯿…完全动不了…真
@@ -199,9 +193,6 @@
 ⽩费了，难道我不够爱你吗？</t>
   </si>
   <si>
-    <t>My body is so heavy... I can't move at all... Is this really the end?... The thought of getting you back filled me with strength, but now I have no strength left... What should I do?... All my previous efforts are wasted. Do I not love you enough?</t>
-  </si>
-  <si>
     <t>地穴宝箱面前</t>
   </si>
   <si>
@@ -213,17 +204,6 @@
     <t>宝箱打开冒金光</t>
   </si>
   <si>
-    <t>Those who have fallen in love, please use your loyalty to unlock the seal of the sky lock</t>
-  </si>
-  <si>
-    <t>我还不能倒下！⽆论⻦⼈有多
-强⼤，我也不可以轻⾔放弃！
-赐予我⼒量吧！</t>
-  </si>
-  <si>
-    <t>I can't fall down yet! No matter how powerful the monster is, I can't give up easily! Give me strength!</t>
-  </si>
-  <si>
     <t>决战</t>
   </si>
   <si>
@@ -235,7 +215,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>…</t>
     </r>
@@ -253,7 +233,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -272,7 +252,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>…</t>
     </r>
@@ -290,7 +270,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -309,7 +289,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -328,7 +308,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>…</t>
     </r>
@@ -346,7 +326,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -362,9 +342,6 @@
     </r>
   </si>
   <si>
-    <t>Impossible...why can you possess such a godly power? It's the Sword of Heaven...Why is it still there after I destroyed it? Could it be...that the sword was not destroyed at all, and that it is still hidden under the cliff?</t>
-  </si>
-  <si>
     <r>
       <t>尔等不过是旧世代笼中⻦，胆</t>
     </r>
@@ -373,7 +350,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -392,7 +369,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -411,7 +388,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -430,7 +407,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -449,7 +426,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -468,7 +445,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="PingFangSC-Regular"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -487,9 +464,6 @@
     <t>宝剑发光</t>
   </si>
   <si>
-    <t xml:space="preserve">You are just birds in a cage, how dare you act presumptuously in front of divinity. Back then, I was torn apart by you only after exhausting my divine power, and the remaining power of the fragments has been gathering at the bottom of the cliff. Now this warrior with firm conviction has awakened me, and you will be sealed again. </t>
-  </si>
-  <si>
     <t>结局</t>
   </si>
   <si>
@@ -506,27 +480,167 @@
 吓死了！</t>
   </si>
   <si>
-    <t>This ugly monster is scaring me to death.</t>
-  </si>
-  <si>
     <t>你有没有受伤？我们快
 点离开这⾥</t>
   </si>
   <si>
+    <t>ad move left and right, w jump, s interact with objects</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>I built this mountain, I carry this tree, if you want to cross this road, you have to leave money behind</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>The heads of these birds seem to be weak points, so why not try stomping on their heads?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foolish people...are you willing to fight against me for the sake of a selfish, pathetic man? No matter...all your struggles will be futile in the face of my absolute strength!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>My body is so heavy... I can't move at all... Is this really the end?... The thought of getting you back filled me with strength, but now I have no strength left... What should I do?... All my previous efforts are wasted. Do I not love you enough?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't fall down yet! No matter how powerful the monster is, I can't give up easily! Give me strength!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Those who have fallen in love, please use your loyalty to unlock the seal of the sky lock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我还不能倒下！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⽆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⻦⼈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有多
+强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⼤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，我也不可以轻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⾔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放弃！
+赐予我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⼒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量吧！</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impossible...why can you possess such a godly power? It's the Sword of Heaven...Why is it still there after I destroyed it? Could it be...that the sword was not destroyed at all, and that it is still hidden under the cliff?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You are just birds in a cage, how dare you act presumptuously in front of divinity. Back then, I was torn apart by you only after exhausting my divine power, and the remaining power of the fragments has been gathering at the bottom of the cliff. Now this warrior with firm conviction has awakened me, and you will be sealed again. </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>This ugly monster is scaring me to death.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>Honey, are you hurt? Let's get out of here.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,173 +658,59 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="PingFangSC-Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="HelveticaNeue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,13 +719,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,19 +737,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,194 +765,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1027,255 +841,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1339,69 +911,31 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00CDACE6"/>
-      <color rgb="00EE79BB"/>
-      <color rgb="00FF8383"/>
+      <color rgb="FFCDACE6"/>
+      <color rgb="FFEE79BB"/>
+      <color rgb="FFFF8383"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1659,29 +1193,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B24" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="34.7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3833333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="83.0333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="83" style="2" customWidth="1"/>
     <col min="4" max="4" width="59" style="2" customWidth="1"/>
-    <col min="5" max="5" width="83.3666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="83.36328125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47" customHeight="1" spans="1:4">
+    <row r="1" spans="1:5" ht="47" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1695,37 +1229,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:5">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:5">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:5">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:5">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:5">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:5">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1744,7 +1278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:5">
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1755,7 +1289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:5">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
@@ -1766,7 +1300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="1:5">
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
@@ -1780,7 +1314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:5">
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1791,7 +1325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="27" spans="2:5">
+    <row r="15" spans="1:5" ht="28">
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
@@ -1803,7 +1337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="2:4">
+    <row r="16" spans="1:5">
       <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
@@ -1812,7 +1346,7 @@
       </c>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" ht="27" spans="2:5">
+    <row r="17" spans="1:5" ht="28">
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1826,7 +1360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="27" spans="2:5">
+    <row r="18" spans="1:5" ht="28">
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
@@ -1840,7 +1374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="1:5">
       <c r="B19" s="5" t="s">
         <v>7</v>
       </c>
@@ -1848,7 +1382,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" ht="27" spans="2:5">
+    <row r="20" spans="1:5" ht="28">
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -1859,7 +1393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="1:5">
       <c r="B21" s="15" t="s">
         <v>9</v>
       </c>
@@ -1869,343 +1403,343 @@
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" ht="28">
+      <c r="A23" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="3:3">
-      <c r="C22" s="16"/>
-    </row>
-    <row r="23" ht="27" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" ht="27" spans="2:5">
+      <c r="E23" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28">
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="3:4">
+        <v>40</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
     </row>
-    <row r="26" ht="54" spans="1:5">
+    <row r="26" spans="1:5" ht="56">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" ht="81" spans="2:5">
+        <v>43</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="84">
       <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" ht="40.5" spans="1:5">
+        <v>44</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="42">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" ht="40.5" spans="2:5">
+        <v>47</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="49.5">
       <c r="B30" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" spans="3:3">
+        <v>65</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" ht="14.25" spans="3:3">
+    <row r="32" spans="1:5">
       <c r="C32" s="14"/>
     </row>
-    <row r="33" ht="70.5" spans="1:5">
+    <row r="33" spans="1:5" ht="72">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" ht="99" spans="2:5">
+        <v>49</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="101">
       <c r="B34" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" spans="3:3">
+        <v>51</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="C35" s="14"/>
     </row>
-    <row r="36" ht="14.25" spans="3:3">
+    <row r="36" spans="1:5">
       <c r="C36" s="14"/>
     </row>
-    <row r="37" ht="14.25" spans="3:3">
+    <row r="37" spans="1:5">
       <c r="C37" s="14"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" ht="27" spans="2:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28">
       <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" ht="27" spans="2:5">
+        <v>56</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28">
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="3:3">
+    <row r="44" spans="1:5">
       <c r="C44" s="16"/>
     </row>
-    <row r="45" ht="14.25" spans="3:4">
+    <row r="45" spans="1:5">
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
     </row>
-    <row r="46" ht="14.25" spans="3:3">
+    <row r="46" spans="1:5">
       <c r="C46" s="16"/>
     </row>
-    <row r="47" ht="14.25" spans="3:3">
+    <row r="47" spans="1:5">
       <c r="C47" s="16"/>
     </row>
-    <row r="48" ht="14.25" spans="3:3">
+    <row r="48" spans="1:5">
       <c r="C48" s="16"/>
     </row>
-    <row r="49" ht="14.25" spans="3:3">
+    <row r="49" spans="3:3">
       <c r="C49" s="16"/>
     </row>
-    <row r="50" ht="14.25" spans="3:3">
+    <row r="50" spans="3:3">
       <c r="C50" s="16"/>
     </row>
-    <row r="51" ht="14.25" spans="3:3">
+    <row r="51" spans="3:3">
       <c r="C51" s="16"/>
     </row>
-    <row r="52" ht="14.25" spans="3:3">
+    <row r="52" spans="3:3">
       <c r="C52" s="16"/>
     </row>
-    <row r="53" ht="14.25" spans="3:3">
+    <row r="53" spans="3:3">
       <c r="C53" s="16"/>
     </row>
-    <row r="55" ht="14.25" spans="3:3">
+    <row r="55" spans="3:3">
       <c r="C55" s="16"/>
     </row>
-    <row r="57" ht="14.25" spans="3:3">
+    <row r="57" spans="3:3">
       <c r="C57" s="16"/>
     </row>
-    <row r="58" ht="14.25" spans="3:3">
+    <row r="58" spans="3:3">
       <c r="C58" s="16"/>
     </row>
-    <row r="59" ht="14.25" spans="3:3">
+    <row r="59" spans="3:3">
       <c r="C59" s="16"/>
     </row>
-    <row r="61" ht="14.25" spans="3:3">
+    <row r="61" spans="3:3">
       <c r="C61" s="16"/>
     </row>
-    <row r="62" ht="14.25" spans="3:3">
+    <row r="62" spans="3:3">
       <c r="C62" s="16"/>
     </row>
-    <row r="63" ht="14.25" spans="3:3">
+    <row r="63" spans="3:3">
       <c r="C63" s="16"/>
     </row>
-    <row r="64" ht="14.25" spans="3:3">
+    <row r="64" spans="3:3">
       <c r="C64" s="16"/>
     </row>
-    <row r="65" ht="14.25" spans="3:3">
+    <row r="65" spans="3:4">
       <c r="C65" s="16"/>
     </row>
-    <row r="67" ht="14.25" spans="4:4">
+    <row r="67" spans="3:4">
       <c r="D67" s="16"/>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:4">
       <c r="C72"/>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="3:4">
       <c r="C73"/>
     </row>
-    <row r="74" ht="14.25" spans="3:3">
+    <row r="74" spans="3:4">
       <c r="C74" s="16"/>
     </row>
-    <row r="76" ht="14.25" spans="3:3">
+    <row r="76" spans="3:4">
       <c r="C76" s="16"/>
     </row>
-    <row r="77" ht="14.25" spans="4:4">
+    <row r="77" spans="3:4">
       <c r="D77" s="16"/>
     </row>
-    <row r="80" ht="14.25" spans="3:3">
+    <row r="80" spans="3:4">
       <c r="C80" s="16"/>
     </row>
-    <row r="81" ht="14.25" spans="3:3">
+    <row r="81" spans="3:4">
       <c r="C81" s="16"/>
     </row>
-    <row r="82" ht="14.25" spans="3:3">
+    <row r="82" spans="3:4">
       <c r="C82" s="16"/>
     </row>
-    <row r="83" ht="14.25" spans="3:3">
+    <row r="83" spans="3:4">
       <c r="C83" s="16"/>
     </row>
-    <row r="84" ht="14.25" spans="3:3">
+    <row r="84" spans="3:4">
       <c r="C84" s="16"/>
     </row>
-    <row r="85" ht="14.25" spans="3:3">
+    <row r="85" spans="3:4">
       <c r="C85" s="16"/>
     </row>
-    <row r="86" ht="14.25" spans="3:3">
+    <row r="86" spans="3:4">
       <c r="C86" s="16"/>
     </row>
-    <row r="87" ht="14.25" spans="3:3">
+    <row r="87" spans="3:4">
       <c r="C87" s="16"/>
     </row>
-    <row r="88" ht="14.25" spans="3:3">
+    <row r="88" spans="3:4">
       <c r="C88" s="16"/>
     </row>
-    <row r="89" ht="14.25" spans="3:3">
+    <row r="89" spans="3:4">
       <c r="C89" s="16"/>
     </row>
-    <row r="90" ht="14.25" spans="3:3">
+    <row r="90" spans="3:4">
       <c r="C90" s="16"/>
     </row>
-    <row r="91" ht="14.25" spans="3:3">
+    <row r="91" spans="3:4">
       <c r="C91" s="16"/>
     </row>
-    <row r="92" ht="14.25" spans="3:4">
+    <row r="92" spans="3:4">
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
     </row>
-    <row r="93" ht="14.25" spans="3:3">
+    <row r="93" spans="3:4">
       <c r="C93" s="16"/>
     </row>
-    <row r="94" ht="14.25" spans="3:3">
+    <row r="94" spans="3:4">
       <c r="C94" s="16"/>
     </row>
-    <row r="95" ht="14.25" spans="3:3">
+    <row r="95" spans="3:4">
       <c r="C95" s="16"/>
     </row>
-    <row r="96" ht="14.25" spans="3:3">
+    <row r="96" spans="3:4">
       <c r="C96" s="16"/>
     </row>
-    <row r="97" ht="14.25" spans="3:3">
+    <row r="97" spans="3:4">
       <c r="C97" s="16"/>
     </row>
-    <row r="98" ht="14.25" spans="3:3">
+    <row r="98" spans="3:4">
       <c r="C98" s="16"/>
     </row>
-    <row r="99" ht="14.25" spans="3:3">
+    <row r="99" spans="3:4">
       <c r="C99" s="16"/>
     </row>
-    <row r="100" ht="14.25" spans="3:3">
+    <row r="100" spans="3:4">
       <c r="C100" s="16"/>
     </row>
-    <row r="101" ht="14.25" spans="3:3">
+    <row r="101" spans="3:4">
       <c r="C101" s="16"/>
     </row>
-    <row r="102" ht="14.25" spans="3:3">
+    <row r="102" spans="3:4">
       <c r="C102" s="16"/>
     </row>
-    <row r="103" ht="14.25" spans="3:3">
+    <row r="103" spans="3:4">
       <c r="C103" s="16"/>
     </row>
-    <row r="104" ht="14.25" spans="3:3">
+    <row r="104" spans="3:4">
       <c r="C104" s="16"/>
     </row>
-    <row r="105" ht="14.25" spans="3:3">
+    <row r="105" spans="3:4">
       <c r="C105" s="16"/>
     </row>
-    <row r="111" ht="14.25" spans="4:4">
+    <row r="111" spans="3:4">
       <c r="D111" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>